--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_6 1.C++入门基础.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_6 1.C++入门基础.xlsx
@@ -13,6 +13,19 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>这种情况为什么不报错？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推测：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,6 +83,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608243</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="257175"/>
+          <a:ext cx="10857143" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>370357</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="4638675"/>
+          <a:ext cx="8942857" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>237069</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12363450" y="6124575"/>
+          <a:ext cx="8447619" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247045</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="9725025"/>
+          <a:ext cx="4838095" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +529,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="R34:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_6 1.C++入门基础.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_6 1.C++入门基础.xlsx
@@ -239,6 +239,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>560914</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>103637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="13458825"/>
+          <a:ext cx="8485714" cy="9104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170673</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>47244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="14830425"/>
+          <a:ext cx="6219048" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -531,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R34:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
